--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2995.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2995.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.183674784757332</v>
+        <v>1.907049298286438</v>
       </c>
       <c r="B1">
-        <v>2.47078371144559</v>
+        <v>1.994985222816467</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.021505117416382</v>
       </c>
       <c r="D1">
-        <v>2.280436344740418</v>
+        <v>2.644572257995605</v>
       </c>
       <c r="E1">
-        <v>1.198151744953309</v>
+        <v>3.3934326171875</v>
       </c>
     </row>
   </sheetData>
